--- a/房子资料.xlsx
+++ b/房子资料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="196">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,34 +282,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建面105、125、130、139平户型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约268套房源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前期均价12000元/平（带装修1600元/平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017年11月底加推7、8#。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登记收集客户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018年开盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>楼栋、户型均待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017年底或2018年年初开盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建面约为108、127、135平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,22 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香水湾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年11月加推9#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建面约90平三房一卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鄂旅投书院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,14 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>世茂云锦玉海园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万科金色城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保利上城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,22 +362,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32+16.8=48.8起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400-890-0000  811397</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>400-890-0000  820908</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>400-890-0000  834229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多个房地产公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前4期已经清盘，后期加推待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推5#建面为90㎡小三房和108㎡三房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,9 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前暂无房源在售</t>
-  </si>
-  <si>
     <t>城投四新之光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,14 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面积118、126和141平的三房和四房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体12500元/平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凤凰小城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,14 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建面82平、98平、106平、121平房源在售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修2500元/平，整体均价15000元/平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国中铁世纪金桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名流印象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018年加推6#、11#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,14 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诚意登记中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计12月加推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建面从88-128平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>置业顾问建议不要关注他们，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交了资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要是130的，明年五六月份会推80-90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明年4-5月份才有房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,14 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘云天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待交结婚证资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛坯9500，精装修12500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +527,18 @@
   </si>
   <si>
     <t>前期开盘9350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直打不通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲玲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -642,7 +547,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -652,7 +557,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -661,7 +566,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -672,15 +577,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张丽</t>
+    <t>世茂云锦玉海园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建面105、125、130、139平户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-890-0000  811397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记收集客户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-890-0000  834229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名流印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚意登记中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘云天/李懿伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备复印资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收资料时再通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1-1.2毛坯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话没打通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期均价12000元/平（带装修1600元/平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32+16.8=48.8起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是130的，明年五六月份会推80-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万科金色城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年11月加推9#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建面约90平三房一卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置业顾问建议不要关注他们，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菁英城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘小刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国博新城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概12月中寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年左右认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6万左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付70万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号交资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85/（1.25-1300），99（1.35-1.4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建面95-127平</t>
+  </si>
+  <si>
+    <t>新城璟棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3-1.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积118、107和141平的三房和四房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匡欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易园园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5-1.6万，毛坯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月中旬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交了资料，等认筹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52万首付/82平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交了资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建面82平、98平、106平、121平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月底认筹，1月初开盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89平和108平</t>
+  </si>
+  <si>
+    <t>海伦春天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话空号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海光谷锦城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89截至收资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加州橘郡住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南新天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南花山郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不定，后续问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,23 +880,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFF00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -745,32 +945,33 @@
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Microsoft yahei"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -781,7 +982,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -842,26 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -869,14 +1050,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -906,33 +1089,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,12 +1110,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -977,13 +1177,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -991,7 +1191,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB9AF77-DFC8-4A98-89F3-06930B90D328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AB9AF77-DFC8-4A98-89F3-06930B90D328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,13 +1238,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1052,7 +1252,7 @@
         <xdr:cNvPr id="3" name="图片 2" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06278CC-DDE0-4DEA-9E05-2051DB0F37BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E06278CC-DDE0-4DEA-9E05-2051DB0F37BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,13 +1299,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1113,7 +1313,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A388BDD4-409A-4536-995B-40A08FB128BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A388BDD4-409A-4536-995B-40A08FB128BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1374,7 @@
         <xdr:cNvPr id="5" name="图片 4" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=202024%5ef=0%5el=http://yuejingtaixc.fang.com/?ctm=1.wuhan.xf_search.lplist.2%5er=http://newhouse.wuhan.fang.com/house/s/baishazhou/?ctm=1.wuhan.xf_search.lpsearch_area.18%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_wz4dznxjjbazg3uio0qrji5gw11jan51k7l%5ec=1%5ea=0%5es=nnn:tydnn%5em=4%5et=%E6%96%B0%E5%9F%8E%E9%98%85%E7%92%9F%E5%8F%B0-%E6%A5%BC%E7%9B%98%E8%AF%A6%E6%83%85-%E6%AD%A6%E6%B1%89%E6%88%BF%E5%A4%A9%E4%B8%8B%5ei=0%5e1512086221321%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059BFD97-A11A-41B0-8DDD-E9A618293FF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{059BFD97-A11A-41B0-8DDD-E9A618293FF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1435,7 @@
         <xdr:cNvPr id="6" name="图片 5" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=202024%5ef=0%5el=http://xiruidu027.fang.com/?ctm=1.wuhan.xf_search.lplist.3%5er=http://newhouse.wuhan.fang.com/house/s/baishazhou/?ctm=1.wuhan.xf_search.lpsearch_area.18%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_hfnjmg84p6pxn7m3v349z3hjw19jan7dkuy%5ec=1%5ea=0%5es=nnnttyjnn%5em=5%5et=%E5%96%9C%E7%91%9E%E9%83%BD-%E6%A5%BC%E7%9B%98%E8%AF%A6%E6%83%85-%E6%AD%A6%E6%B1%89%E6%88%BF%E5%A4%A9%E4%B8%8B%5ei=0%5e1512090104432%5eo=%5erealip=%5epageid=1~%5b201020023,0%5d">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57387EB0-A5EE-4E71-A619-919BE697A614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57387EB0-A5EE-4E71-A619-919BE697A614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1496,7 @@
         <xdr:cNvPr id="7" name="图片 6" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=202024%5ef=0%5el=http://youyouchengwhaj.fang.com/?ctm=1.wuhan.xf_search.lplist.6%5er=http://newhouse.wuhan.fang.com/house/s/baishazhou/?ctm=1.wuhan.xf_search.lpsearch_area.18%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_hfnjmg84p6pxn7m3v349z3hjw19jan7dkuy%5ec=1%5ea=0%5es=nnnytyjnn%5em=6%5et=%E7%88%B1%E5%AE%B6%E5%90%8D%E6%A0%A1%E5%8D%8E%E5%9F%8E-%E6%A5%BC%E7%9B%98%E8%AF%A6%E6%83%85-%E6%AD%A6%E6%B1%89%E6%88%BF%E5%A4%A9%E4%B8%8B%5ei=0%5e1512090196168%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476B3336-62E8-4ABA-B7A9-5D637B5F6D0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{476B3336-62E8-4ABA-B7A9-5D637B5F6D0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1557,7 @@
         <xdr:cNvPr id="8" name="图片 7" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2611108784_3173334.htm%5er=http://youyouchengwhaj.fang.com/?ctm=1.wuhan.xf_search.lplist.6%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_hfnjmg84p6pxn7m3v349z3hjw19jan7dkuy%5ec=1%5ea=0%5es=nnnnyyjnn%5em=7%5et=%E7%88%B1%E5%AE%B6%E5%90%8D%E6%A0%A1%E5%8D%8E%E5%9F%8E%E9%A2%84%E8%AE%A12018%E5%B9%B4%E5%86%8D%E5%8A%A0%E6%8E%A8_%E7%88%B1%E5%AE%B6%E5%90%8D%E6%A0%A1%E5%8D%8E%E5%9F%8E-%E6%AD%A6%E6%B1%89%E6%88%BF%E5%A4%A9%E4%B8%8B%5ei=0%5e1512090238604%5eo=%5erealip=%5epageid=">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871A80B5-6FA8-4C3E-8C4C-5B0055945156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{871A80B5-6FA8-4C3E-8C4C-5B0055945156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,6 +1600,174 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AB9AF77-DFC8-4A98-89F3-06930B90D328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="11643360"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E06278CC-DDE0-4DEA-9E05-2051DB0F37BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="11643360"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="http://countpvs.light.fang.com/countpv?v=1.30%5eb=210024%5ef=0%5el=http://news.wuhan.fang.com/house/2610153284_3171898.htm%5er=http://feicuihuatinghd027.fang.com/?xf_source=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD-%E4%BD%8F%E5%AE%85%5eg=prnyuc73kwn932flf4trw40aj1ejadojp63%5eu=U_xhgxbz85zql1cs5jf5ywyqynw1pjaewtqxo%5ec=1%5ea=0%5es=nnnnfyxnn%5em=5%5et=%E6%81%92%E5%A4%A7%E7%BF%A1%E7%BF%A0%E5%8D%8E%E5%BA%AD%E4%B8%8B%E6%9C%9F%E5%8A%A0%E6%8E%A81%5ei=0%5e1511588924238%5eo=%5erealip=%5epageid=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A388BDD4-409A-4536-995B-40A08FB128BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="11643360"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1686,20 +2054,20 @@
   <sheetData>
     <row r="1" spans="3:14" s="7" customFormat="1"/>
     <row r="2" spans="3:14" ht="20.399999999999999">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="3:14">
       <c r="C3" s="1" t="s">
@@ -1836,20 +2204,20 @@
       </c>
     </row>
     <row r="9" spans="3:14" ht="17.399999999999999">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="3:14">
       <c r="C10" s="1"/>
@@ -2065,7 +2433,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2081,21 +2449,21 @@
     </row>
     <row r="22" spans="2:14" ht="19.8" customHeight="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="32"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2110,7 +2478,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" ht="28.2" customHeight="1">
-      <c r="B24" s="32"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2125,7 +2493,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="2:14" ht="30.6" customHeight="1">
-      <c r="B25" s="32"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2140,7 +2508,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" ht="27.6" customHeight="1">
-      <c r="B26" s="32"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2155,7 +2523,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" ht="36" customHeight="1">
-      <c r="B27" s="32"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2170,7 +2538,7 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14" ht="31.2" customHeight="1">
-      <c r="B28" s="32"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2185,7 +2553,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" ht="43.2" customHeight="1">
-      <c r="B29" s="32"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2200,7 +2568,7 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" ht="31.2" customHeight="1">
-      <c r="B30" s="32"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2215,7 +2583,7 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" ht="46.2" customHeight="1">
-      <c r="B31" s="32"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2274,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:Q32"/>
+  <dimension ref="B7:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F53" sqref="F52:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2289,31 +2657,32 @@
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" style="7" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:17" ht="17.399999999999999">
       <c r="B7" s="8"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="32" t="s">
-        <v>93</v>
+      <c r="B8" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>52</v>
@@ -2337,10 +2706,10 @@
         <v>59</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L8" s="10">
         <v>43062</v>
@@ -2352,36 +2721,39 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:17" ht="42" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="8"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="38" t="s">
+        <v>128</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="27.6">
-      <c r="B10" s="32"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>60</v>
@@ -2393,7 +2765,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
@@ -2405,7 +2777,7 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -2413,91 +2785,91 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" ht="35.4" customHeight="1">
-      <c r="B11" s="32"/>
-      <c r="C11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22">
+      <c r="H11" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28">
         <v>3.4</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>144</v>
+      <c r="K11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="32"/>
-      <c r="C12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="8"/>
+    <row r="12" spans="2:17" ht="27.6" customHeight="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="12" t="s">
-        <v>148</v>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -2505,31 +2877,35 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="27.6">
-      <c r="B14" s="32"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>141</v>
+        <v>73</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -2537,31 +2913,31 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" ht="31.2" customHeight="1">
-      <c r="B15" s="32"/>
-      <c r="C15" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22">
+      <c r="B15" s="23"/>
+      <c r="C15" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28">
         <v>3.6</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>140</v>
+      <c r="K15" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>156</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -2569,342 +2945,386 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="2:17" ht="44.4" customHeight="1">
-      <c r="B16" s="32"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9">
+        <v>829824</v>
+      </c>
       <c r="L16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="2:17" s="7" customFormat="1" ht="34.799999999999997" customHeight="1">
+    <row r="17" spans="2:17" s="7" customFormat="1" ht="28.2" customHeight="1">
       <c r="B17" s="16"/>
       <c r="C17" s="12" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" s="7" customFormat="1" ht="44.4" customHeight="1">
+    <row r="18" spans="2:17" s="7" customFormat="1" ht="26.4" customHeight="1">
       <c r="B18" s="6"/>
-      <c r="C18" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="8"/>
+      <c r="C18" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" s="7" customFormat="1" ht="44.4" customHeight="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>154</v>
+    <row r="19" spans="2:17" s="7" customFormat="1" ht="26.4" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="7">
+      <c r="K19" s="11">
         <v>13407122377</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" s="7" customFormat="1" ht="44.4" customHeight="1">
-      <c r="B20" s="24"/>
-      <c r="C20"/>
-      <c r="D20" s="27"/>
+    <row r="20" spans="2:17" s="7" customFormat="1" ht="28.2" customHeight="1">
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="26"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21">
-        <v>812306</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" ht="46.2" customHeight="1">
-      <c r="B22" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
-        <v>15971413343</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="2:17" ht="40.799999999999997" customHeight="1">
-      <c r="B23" s="34"/>
+    <row r="21" spans="2:17" s="7" customFormat="1" ht="44.4" customHeight="1">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="2:17" s="7" customFormat="1" ht="44.4" customHeight="1">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="25"/>
       <c r="C23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="2:17" ht="34.799999999999997" customHeight="1">
-      <c r="B24" s="34"/>
-      <c r="C24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24" spans="2:17" ht="46.2" customHeight="1">
+      <c r="B24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11">
+        <v>15971413343</v>
+      </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" ht="27" customHeight="1">
-      <c r="B25" s="34"/>
-      <c r="C25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
-        <v>808077</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+    <row r="25" spans="2:17" ht="40.799999999999997" customHeight="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
+        <v>164</v>
+      </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" ht="41.4">
-      <c r="B26" s="34"/>
+    <row r="26" spans="2:17" ht="34.799999999999997" customHeight="1">
+      <c r="B26" s="24"/>
       <c r="C26" s="14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="M26" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" ht="24.6" customHeight="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="15" t="s">
-        <v>118</v>
+    <row r="27" spans="2:17" ht="27" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="11">
+        <v>808077</v>
+      </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="2:17" ht="27.6">
-      <c r="B28" s="34"/>
-      <c r="C28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19">
-        <v>676669</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>145</v>
+      <c r="B28" s="24"/>
+      <c r="C28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
+        <v>837582</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" ht="13.8" customHeight="1">
-      <c r="B29" s="34"/>
-      <c r="C29" s="14" t="s">
-        <v>123</v>
+    <row r="29" spans="2:17" ht="24.6" customHeight="1">
+      <c r="B29" s="24"/>
+      <c r="C29" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>127</v>
-      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11">
+        <v>812095</v>
+      </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -2912,91 +3332,474 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" ht="13.8" customHeight="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11">
-        <v>835938</v>
-      </c>
-      <c r="L30" s="11" t="s">
+    <row r="30" spans="2:17" ht="41.4" customHeight="1">
+      <c r="B30" s="24"/>
+      <c r="C30" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44">
+        <v>676669</v>
+      </c>
+      <c r="L30" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="M30" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" ht="27.6">
-      <c r="B31" s="34"/>
+    <row r="31" spans="2:17" ht="25.2" customHeight="1">
+      <c r="B31" s="24"/>
       <c r="C31" s="14" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="F31" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="M31" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="34"/>
+    <row r="32" spans="2:17" ht="30" customHeight="1">
+      <c r="B32" s="24"/>
       <c r="C32" s="14" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="I32" s="11" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="K32" s="11">
+        <v>835938</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="M32" s="11" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
+    <row r="33" spans="2:17" ht="27.6">
+      <c r="B33" s="24"/>
+      <c r="C33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="2:17" ht="13.8" customHeight="1">
+      <c r="B34" s="24"/>
+      <c r="C34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="2:17" ht="14.4" customHeight="1">
+      <c r="B35" s="24"/>
+      <c r="C35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="2:17" ht="14.4" customHeight="1">
+      <c r="B36" s="24"/>
+      <c r="C36" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
+        <v>814283</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="2:17" ht="14.4">
+      <c r="B37" s="24"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="25"/>
+      <c r="C42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="2:17" ht="14.4">
+      <c r="B44" s="24"/>
+      <c r="C44" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="41">
+        <v>120</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="24"/>
+      <c r="C45" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="2:17" ht="27.6">
+      <c r="B46" s="24"/>
+      <c r="C46" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="15">
+        <v>118</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="24"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="24"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="24"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="24"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="24"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="24"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="24"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="2:13" ht="14.4">
+      <c r="B54" s="24"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="2:13" ht="14.4">
+      <c r="B55" s="24"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="2:13" ht="14.4">
+      <c r="B56" s="24"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="B43:B56"/>
     <mergeCell ref="C7:Q7"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="B24:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
